--- a/Test Data Driven/AI-Generated/TC13-Purchase Google Pixel 8 and Complete Checkout.xlsx
+++ b/Test Data Driven/AI-Generated/TC13-Purchase Google Pixel 8 and Complete Checkout.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="82" customWidth="1" min="1" max="1"/>
     <col width="66" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,21 +473,11 @@
           <t>index_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>link_byPrice_internalRoleLinkName</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>link_byPrice_nthChild</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/placeOrderAndProceedToCheckout-test-data</t>
+          <t>Data Files/AI-Generated/Common/selectDeviceOptionsAndProceedToCheckout-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -505,16 +493,6 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>By price</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
